--- a/BangKeHoach-DoAn1.xlsx
+++ b/BangKeHoach-DoAn1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\N3\Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD18CC6-81BA-4367-B8A9-13964FD97919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Kế Hoạch" sheetId="1" r:id="rId1"/>
@@ -184,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
@@ -286,11 +285,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -322,7 +321,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Kế Hoạch-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Kế Hoạch-style" pivot="0" count="3">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
@@ -635,11 +634,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -650,22 +649,22 @@
     <col min="4" max="4" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.109375" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" style="15" bestFit="1" customWidth="1"/>
     <col min="9" max="23" width="8.6640625" style="2" customWidth="1"/>
     <col min="24" max="16384" width="14.44140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -683,16 +682,16 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" ht="22.8" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -845,8 +844,12 @@
       <c r="F6" s="7">
         <v>43749</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="7">
+        <v>43748</v>
+      </c>
+      <c r="H6" s="7">
+        <v>43779</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -1365,10 +1368,10 @@
       <c r="D22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <v>43764</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="17">
         <v>43764</v>
       </c>
       <c r="G22" s="7"/>

--- a/BangKeHoach-DoAn1.xlsx
+++ b/BangKeHoach-DoAn1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t xml:space="preserve">             Quản lý hệ thống</t>
+  </si>
+  <si>
+    <t>13/10/2019</t>
+  </si>
+  <si>
+    <t>14/10/2019</t>
+  </si>
+  <si>
+    <t>17/10/2019</t>
+  </si>
+  <si>
+    <t>15/10/2019</t>
   </si>
 </sst>
 </file>
@@ -635,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1003"/>
+  <dimension ref="A1:W1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -867,23 +879,30 @@
       <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:23" s="16" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="B7" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="7">
-        <v>43750</v>
+        <v>43751</v>
       </c>
       <c r="F7" s="7">
-        <v>43750</v>
+        <v>43752</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -901,11 +920,8 @@
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" s="16" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="B8" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>6</v>
@@ -914,13 +930,17 @@
         <v>6</v>
       </c>
       <c r="E8" s="7">
-        <v>43751</v>
+        <v>43752</v>
       </c>
       <c r="F8" s="7">
-        <v>43752</v>
+        <v>43755</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
@@ -939,22 +959,24 @@
     </row>
     <row r="9" spans="1:23" s="16" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B9" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="C9" s="10"/>
       <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="7">
-        <v>43752</v>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
       </c>
-      <c r="F9" s="7">
-        <v>43755</v>
+      <c r="F9" s="7" t="s">
+        <v>55</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -972,9 +994,10 @@
       <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23" s="16" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>17</v>
+      <c r="A10" s="16" t="s">
+        <v>18</v>
       </c>
+      <c r="B10" s="5"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="7"/>
@@ -999,13 +1022,23 @@
     </row>
     <row r="11" spans="1:23" s="16" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="7">
+        <v>43756</v>
+      </c>
+      <c r="F11" s="7">
+        <v>43757</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
@@ -1026,10 +1059,10 @@
     </row>
     <row r="12" spans="1:23" s="16" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>38</v>
+      <c r="B12" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>6</v>
@@ -1038,10 +1071,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="7">
-        <v>43756</v>
+        <v>43758</v>
       </c>
       <c r="F12" s="7">
-        <v>43757</v>
+        <v>43760</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1063,23 +1096,12 @@
     </row>
     <row r="13" spans="1:23" s="16" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="7">
-        <v>43758</v>
-      </c>
-      <c r="F13" s="7">
-        <v>43760</v>
-      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
@@ -1100,12 +1122,21 @@
     </row>
     <row r="14" spans="1:23" s="16" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="B14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="7">
+        <v>43761</v>
+      </c>
+      <c r="F14" s="7">
+        <v>43761</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
@@ -1125,11 +1156,8 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" s="16" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="B15" s="9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>6</v>
@@ -1160,8 +1188,8 @@
       <c r="W15" s="8"/>
     </row>
     <row r="16" spans="1:23" s="16" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
-        <v>26</v>
+      <c r="B16" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>6</v>
@@ -1191,19 +1219,22 @@
       <c r="V16" s="8"/>
       <c r="W16" s="8"/>
     </row>
-    <row r="17" spans="1:23" s="16" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>24</v>
+      </c>
       <c r="B17" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="10"/>
       <c r="E17" s="7">
-        <v>43761</v>
+        <v>43762</v>
       </c>
       <c r="F17" s="7">
-        <v>43761</v>
+        <v>43762</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -1224,11 +1255,8 @@
       <c r="W17" s="8"/>
     </row>
     <row r="18" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="B18" s="16" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
@@ -1259,18 +1287,21 @@
       <c r="W18" s="8"/>
     </row>
     <row r="19" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
-        <v>48</v>
+      <c r="A19" s="16" t="s">
+        <v>25</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
+      <c r="B19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="D19" s="10"/>
       <c r="E19" s="7">
-        <v>43762</v>
+        <v>43763</v>
       </c>
       <c r="F19" s="7">
-        <v>43762</v>
+        <v>43763</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -1291,11 +1322,8 @@
       <c r="W19" s="8"/>
     </row>
     <row r="20" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="B20" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>6</v>
@@ -1326,18 +1354,21 @@
       <c r="W20" s="8"/>
     </row>
     <row r="21" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="B21" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="7">
-        <v>43763</v>
+      <c r="E21" s="17">
+        <v>43764</v>
       </c>
-      <c r="F21" s="7">
-        <v>43763</v>
+      <c r="F21" s="17">
+        <v>43764</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -1358,20 +1389,17 @@
       <c r="W21" s="8"/>
     </row>
     <row r="22" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="B22" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="7">
         <v>43764</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="7">
         <v>43764</v>
       </c>
       <c r="G22" s="7"/>
@@ -1393,18 +1421,21 @@
       <c r="W22" s="8"/>
     </row>
     <row r="23" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
-        <v>45</v>
+      <c r="A23" s="16" t="s">
+        <v>36</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="s">
+      <c r="B23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>6</v>
       </c>
+      <c r="D23" s="10"/>
       <c r="E23" s="7">
-        <v>43764</v>
+        <v>43765</v>
       </c>
       <c r="F23" s="7">
-        <v>43764</v>
+        <v>43765</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
@@ -1425,11 +1456,8 @@
       <c r="W23" s="8"/>
     </row>
     <row r="24" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="B24" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>6</v>
@@ -1460,18 +1488,21 @@
       <c r="W24" s="8"/>
     </row>
     <row r="25" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
-        <v>47</v>
+      <c r="A25" s="16" t="s">
+        <v>28</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="B25" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="10"/>
       <c r="E25" s="7">
-        <v>43765</v>
+        <v>43766</v>
       </c>
       <c r="F25" s="7">
-        <v>43765</v>
+        <v>43766</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
@@ -1492,11 +1523,8 @@
       <c r="W25" s="8"/>
     </row>
     <row r="26" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>49</v>
+      <c r="B26" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
@@ -1527,8 +1555,11 @@
       <c r="W26" s="8"/>
     </row>
     <row r="27" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="B27" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
@@ -1558,60 +1589,58 @@
       <c r="V27" s="8"/>
       <c r="W27" s="8"/>
     </row>
-    <row r="28" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="7">
+      <c r="D28" s="11"/>
+      <c r="E28" s="12">
         <v>43766</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="12">
         <v>43766</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-    </row>
-    <row r="29" spans="1:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="11"/>
+      <c r="D29" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="E29" s="12">
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="F29" s="12">
-        <v>43766</v>
+        <v>43768</v>
       </c>
       <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -1626,10 +1655,10 @@
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>32</v>
+      <c r="B30" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>6</v>
@@ -1638,13 +1667,13 @@
         <v>6</v>
       </c>
       <c r="E30" s="12">
-        <v>43767</v>
+        <v>43770</v>
       </c>
       <c r="F30" s="12">
-        <v>43768</v>
+        <v>43776</v>
       </c>
       <c r="G30" s="12"/>
-      <c r="H30" s="14"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="13"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
@@ -1658,11 +1687,9 @@
       <c r="S30" s="13"/>
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="A31" s="16"/>
       <c r="B31" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>6</v>
@@ -1671,10 +1698,10 @@
         <v>6</v>
       </c>
       <c r="E31" s="12">
-        <v>43770</v>
+        <v>43777</v>
       </c>
       <c r="F31" s="12">
-        <v>43776</v>
+        <v>43794</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -1691,21 +1718,13 @@
       <c r="S31" s="13"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16"/>
-      <c r="B32" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>6</v>
-      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="12">
-        <v>43777</v>
+        <v>43795</v>
       </c>
       <c r="F32" s="12">
-        <v>43794</v>
+        <v>43805</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -1722,14 +1741,11 @@
       <c r="S32" s="13"/>
     </row>
     <row r="33" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="12">
-        <v>43795</v>
-      </c>
-      <c r="F33" s="12">
-        <v>43805</v>
-      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
       <c r="I33" s="13"/>
@@ -21105,7 +21121,6 @@
       <c r="S1001" s="13"/>
     </row>
     <row r="1002" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1002" s="1"/>
       <c r="C1002" s="11"/>
       <c r="D1002" s="11"/>
       <c r="E1002" s="12"/>
@@ -21124,25 +21139,6 @@
       <c r="R1002" s="13"/>
       <c r="S1002" s="13"/>
     </row>
-    <row r="1003" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C1003" s="11"/>
-      <c r="D1003" s="11"/>
-      <c r="E1003" s="12"/>
-      <c r="F1003" s="12"/>
-      <c r="G1003" s="12"/>
-      <c r="H1003" s="12"/>
-      <c r="I1003" s="13"/>
-      <c r="J1003" s="13"/>
-      <c r="K1003" s="13"/>
-      <c r="L1003" s="13"/>
-      <c r="M1003" s="13"/>
-      <c r="N1003" s="13"/>
-      <c r="O1003" s="13"/>
-      <c r="P1003" s="13"/>
-      <c r="Q1003" s="13"/>
-      <c r="R1003" s="13"/>
-      <c r="S1003" s="13"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
